--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380" activeTab="5"/>
+    <workbookView windowHeight="17680" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="cable" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,20 @@
     <sheet name="battery" sheetId="20" r:id="rId20"/>
     <sheet name="indmotor" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1677,7 +1690,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1713,34 +1726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1754,14 +1739,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1801,6 +1778,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1851,7 +1843,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1884,55 +1897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,31 +1921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,6 +1957,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2005,6 +1976,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +2023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2047,6 +2054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,21 +2101,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2131,6 +2129,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2187,148 +2200,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2366,33 +2379,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2411,52 +2424,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2757,24 +2770,24 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C25" sqref="C25:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.84166666666667" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.53333333333333" style="24" customWidth="1"/>
-    <col min="3" max="4" width="29.8083333333333" style="24" customWidth="1"/>
-    <col min="5" max="5" width="6.075" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="24" customWidth="1"/>
-    <col min="11" max="13" width="13.7583333333333" style="24" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="24" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.84545454545455" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.53636363636364" style="24" customWidth="1"/>
+    <col min="3" max="4" width="29.8090909090909" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.07272727272727" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.6272727272727" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.8727272727273" style="24" customWidth="1"/>
+    <col min="8" max="8" width="14.1272727272727" style="24" customWidth="1"/>
+    <col min="9" max="9" width="21.6272727272727" style="24" customWidth="1"/>
+    <col min="10" max="10" width="22.8727272727273" style="24" customWidth="1"/>
+    <col min="11" max="13" width="13.7545454545455" style="24" customWidth="1"/>
+    <col min="14" max="14" width="12.8727272727273" style="24" customWidth="1"/>
+    <col min="15" max="15" width="11.6272727272727" style="24" customWidth="1"/>
+    <col min="16" max="16" width="12.8727272727273" style="24" customWidth="1"/>
     <col min="17" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -4143,7 +4156,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -4252,7 +4265,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -4331,12 +4344,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.84166666666667" customWidth="1"/>
-    <col min="2" max="2" width="39.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="27.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.84545454545455" customWidth="1"/>
+    <col min="2" max="2" width="39.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="25.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4380,7 +4393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4408,7 +4421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4422,7 +4435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4464,7 +4477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4478,7 +4491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4492,7 +4505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4517,28 +4530,28 @@
   <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="5.875" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="15" width="12.875" customWidth="1"/>
-    <col min="16" max="16" width="19.125" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="18" max="20" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="20.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="11.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="17.8727272727273" customWidth="1"/>
+    <col min="5" max="6" width="16.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="10.3727272727273" customWidth="1"/>
+    <col min="8" max="8" width="11.6272727272727" customWidth="1"/>
+    <col min="9" max="9" width="10.3727272727273" customWidth="1"/>
+    <col min="10" max="10" width="15.3727272727273" customWidth="1"/>
+    <col min="11" max="11" width="14.1272727272727" customWidth="1"/>
+    <col min="12" max="12" width="5.87272727272727" customWidth="1"/>
+    <col min="13" max="13" width="11.6272727272727" customWidth="1"/>
+    <col min="14" max="15" width="12.8727272727273" customWidth="1"/>
+    <col min="16" max="16" width="19.1272727272727" customWidth="1"/>
+    <col min="17" max="17" width="14.1272727272727" customWidth="1"/>
+    <col min="18" max="20" width="12.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4928,25 +4941,25 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="5.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="19.125" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="22" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="5.37272727272727" customWidth="1"/>
+    <col min="5" max="5" width="11.6272727272727" customWidth="1"/>
+    <col min="6" max="6" width="17.8727272727273" customWidth="1"/>
+    <col min="7" max="7" width="9.37272727272727" customWidth="1"/>
+    <col min="8" max="8" width="8.12727272727273" customWidth="1"/>
+    <col min="9" max="9" width="20.6272727272727" customWidth="1"/>
+    <col min="10" max="10" width="11.6272727272727" customWidth="1"/>
+    <col min="11" max="11" width="10.3727272727273" customWidth="1"/>
+    <col min="12" max="12" width="14.1272727272727" customWidth="1"/>
+    <col min="13" max="13" width="16.6272727272727" customWidth="1"/>
+    <col min="14" max="14" width="5.87272727272727" customWidth="1"/>
+    <col min="15" max="15" width="11.6272727272727" customWidth="1"/>
+    <col min="16" max="17" width="12.8727272727273" customWidth="1"/>
+    <col min="18" max="18" width="19.1272727272727" customWidth="1"/>
+    <col min="19" max="19" width="14.1272727272727" customWidth="1"/>
+    <col min="20" max="22" width="12.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5168,9 +5181,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="21.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5244,7 +5257,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5279,7 +5292,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
@@ -5370,7 +5383,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -5428,10 +5441,10 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
-    <col min="20" max="20" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="21.6272727272727" customWidth="1"/>
+    <col min="20" max="20" width="20.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">
@@ -7131,7 +7144,7 @@
       <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
@@ -7339,7 +7352,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -7448,10 +7461,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="16" max="16" width="11.5"/>
-    <col min="21" max="21" width="12.625"/>
+    <col min="21" max="21" width="12.6272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -7695,7 +7708,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
@@ -7807,26 +7820,26 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.84166666666667" customWidth="1"/>
-    <col min="2" max="2" width="34.9833333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.3916666666667" customWidth="1"/>
-    <col min="5" max="5" width="20.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.225" customWidth="1"/>
-    <col min="7" max="7" width="14.8083333333333" customWidth="1"/>
-    <col min="8" max="8" width="5.775" customWidth="1"/>
-    <col min="9" max="9" width="10.025" customWidth="1"/>
+    <col min="1" max="1" width="6.84545454545455" customWidth="1"/>
+    <col min="2" max="2" width="34.9818181818182" customWidth="1"/>
+    <col min="3" max="3" width="13.9363636363636" customWidth="1"/>
+    <col min="4" max="4" width="18.3909090909091" customWidth="1"/>
+    <col min="5" max="5" width="20.7090909090909" customWidth="1"/>
+    <col min="6" max="6" width="11.2272727272727" customWidth="1"/>
+    <col min="7" max="7" width="14.8090909090909" customWidth="1"/>
+    <col min="8" max="8" width="5.77272727272727" customWidth="1"/>
+    <col min="9" max="9" width="10.0272727272727" customWidth="1"/>
     <col min="10" max="10" width="7.9" customWidth="1"/>
-    <col min="11" max="11" width="19.5166666666667" customWidth="1"/>
-    <col min="12" max="12" width="11.225" customWidth="1"/>
-    <col min="13" max="13" width="5.775" customWidth="1"/>
-    <col min="14" max="15" width="11.225" customWidth="1"/>
-    <col min="16" max="16" width="5.775" customWidth="1"/>
+    <col min="11" max="11" width="19.5181818181818" customWidth="1"/>
+    <col min="12" max="12" width="11.2272727272727" customWidth="1"/>
+    <col min="13" max="13" width="5.77272727272727" customWidth="1"/>
+    <col min="14" max="15" width="11.2272727272727" customWidth="1"/>
+    <col min="16" max="16" width="5.77272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7879,17 +7892,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:16">
+    <row r="2" ht="15" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>99.999992371</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>4.3150703277e-6</v>
       </c>
       <c r="F2" t="s">
@@ -7926,11 +7939,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:16">
+    <row r="3" ht="15" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2">
@@ -7973,11 +7986,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:16">
+    <row r="4" ht="15" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2">
@@ -8020,11 +8033,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:16">
+    <row r="5" ht="15" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
@@ -8067,11 +8080,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:16">
+    <row r="6" ht="15" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2">
@@ -8114,11 +8127,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:16">
+    <row r="7" ht="15" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2">
@@ -8161,11 +8174,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:16">
+    <row r="8" ht="15" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2">
@@ -8208,11 +8221,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:16">
+    <row r="9" ht="15" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2">
@@ -8255,11 +8268,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:16">
+    <row r="10" ht="15" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
@@ -8302,11 +8315,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:16">
+    <row r="11" ht="15" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="2">
@@ -8349,11 +8362,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:16">
+    <row r="12" ht="15" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2">
@@ -8396,11 +8409,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:16">
+    <row r="13" ht="15" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2">
@@ -8443,11 +8456,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:16">
+    <row r="14" ht="15" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="2">
@@ -8490,11 +8503,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:16">
+    <row r="15" ht="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="2">
@@ -8537,11 +8550,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:16">
+    <row r="16" ht="15" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="2">
@@ -8584,11 +8597,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:16">
+    <row r="17" ht="15" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2">
@@ -8631,11 +8644,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:16">
+    <row r="18" ht="15" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2">
@@ -8678,11 +8691,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:16">
+    <row r="19" ht="15" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2">
@@ -8725,11 +8738,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:16">
+    <row r="20" ht="15" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2">
@@ -8772,11 +8785,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:16">
+    <row r="21" ht="15" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="2">
@@ -8819,11 +8832,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:16">
+    <row r="22" ht="15" spans="1:16">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="2">
@@ -8866,11 +8879,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:16">
+    <row r="23" ht="15" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="2">
@@ -8913,11 +8926,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:16">
+    <row r="24" ht="15" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2">
@@ -8960,11 +8973,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:16">
+    <row r="25" ht="15" spans="1:16">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2">
@@ -9007,11 +9020,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:16">
+    <row r="26" ht="15" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="2">
@@ -9069,7 +9082,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
@@ -9181,7 +9194,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -9260,13 +9273,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="5" max="6" width="11.5"/>
     <col min="23" max="24" width="11.5"/>
@@ -9411,7 +9424,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:45">
+    <row r="2" ht="15" spans="1:45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9548,7 +9561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:45">
+    <row r="3" ht="15" spans="1:45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9684,51 +9697,6 @@
       <c r="AS3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:44">
-      <c r="B4" s="20"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9745,7 +9713,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
@@ -9968,18 +9936,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="22.825" customWidth="1"/>
-    <col min="9" max="9" width="13.7583333333333"/>
-    <col min="12" max="12" width="12.625"/>
+    <col min="3" max="3" width="22.8272727272727" customWidth="1"/>
+    <col min="9" max="9" width="13.7545454545455"/>
+    <col min="12" max="12" width="12.6272727272727"/>
     <col min="17" max="17" width="11.5"/>
     <col min="22" max="22" width="11.5"/>
     <col min="27" max="27" width="11.5"/>
     <col min="31" max="31" width="11.5"/>
     <col min="37" max="37" width="11.5"/>
     <col min="39" max="39" width="11.5"/>
-    <col min="41" max="41" width="9.375"/>
+    <col min="41" max="41" width="9.37272727272727"/>
     <col min="54" max="55" width="11.5"/>
   </cols>
   <sheetData>
@@ -11937,14 +11905,14 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="27.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.6363636363636" customWidth="1"/>
     <col min="10" max="10" width="31" style="9" customWidth="1"/>
-    <col min="28" max="28" width="12.8166666666667"/>
-    <col min="30" max="33" width="11.725"/>
-    <col min="37" max="37" width="9.54166666666667"/>
-    <col min="55" max="55" width="12.8166666666667"/>
+    <col min="28" max="28" width="12.8181818181818"/>
+    <col min="30" max="33" width="11.7272727272727"/>
+    <col min="37" max="37" width="9.54545454545454"/>
+    <col min="55" max="55" width="12.8181818181818"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:60">
@@ -12155,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="11" t="b">
@@ -12170,134 +12138,134 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>100</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <v>100</v>
       </c>
-      <c r="S3" s="15">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
-        <v>0</v>
-      </c>
-      <c r="X3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="15">
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
         <v>20</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <v>150</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH3" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="17">
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="15">
         <v>52963</v>
       </c>
-      <c r="AL3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="15">
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="14">
         <v>3</v>
       </c>
       <c r="AS3" s="11"/>
-      <c r="AT3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="15">
+      <c r="AT3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="14">
         <v>0</v>
       </c>
       <c r="AY3" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ3" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="15">
+      <c r="AZ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="14">
         <v>50</v>
       </c>
-      <c r="BB3" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="15">
+      <c r="BB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="BD3" s="14">
         <v>50</v>
       </c>
-      <c r="BE3" s="15">
+      <c r="BE3" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF3" s="15">
+      <c r="BF3" s="14">
         <v>10</v>
       </c>
-      <c r="BG3" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="15">
+      <c r="BG3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="14">
         <v>50</v>
       </c>
     </row>
@@ -12327,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="11" t="b">
@@ -12342,134 +12310,134 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>100</v>
       </c>
       <c r="R4" s="16">
         <v>300</v>
       </c>
-      <c r="S4" s="15">
-        <v>0</v>
-      </c>
-      <c r="T4" s="15">
-        <v>0</v>
-      </c>
-      <c r="U4" s="15">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <v>0</v>
-      </c>
-      <c r="X4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
         <v>20</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="14">
         <v>150</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG4" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH4" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="17">
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="15">
         <v>52963</v>
       </c>
-      <c r="AL4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="15">
+      <c r="AL4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="14">
         <v>3</v>
       </c>
       <c r="AS4" s="11"/>
-      <c r="AT4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="15">
+      <c r="AT4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="14">
         <v>0</v>
       </c>
       <c r="AY4" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="15">
+      <c r="AZ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="14">
         <v>50</v>
       </c>
-      <c r="BB4" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="15">
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD4" s="15">
+      <c r="BD4" s="14">
         <v>50</v>
       </c>
-      <c r="BE4" s="15">
+      <c r="BE4" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF4" s="15">
+      <c r="BF4" s="14">
         <v>10</v>
       </c>
-      <c r="BG4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="15">
+      <c r="BG4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="14">
         <v>50</v>
       </c>
     </row>
@@ -12477,7 +12445,7 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="11">
@@ -12499,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="11" t="b">
@@ -12514,134 +12482,134 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>100</v>
       </c>
       <c r="R5" s="16">
         <v>300</v>
       </c>
-      <c r="S5" s="15">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
-        <v>0</v>
-      </c>
-      <c r="U5" s="15">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15">
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
         <v>20</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="14">
         <v>150</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AG5" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH5" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="17">
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
         <v>52963</v>
       </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="15">
+      <c r="AL5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="14">
         <v>3</v>
       </c>
       <c r="AS5" s="11"/>
-      <c r="AT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="15">
+      <c r="AT5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="14">
         <v>0</v>
       </c>
       <c r="AY5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
+      <c r="AZ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="14">
         <v>50</v>
       </c>
-      <c r="BB5" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="15">
+      <c r="BB5" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD5" s="15">
+      <c r="BD5" s="14">
         <v>50</v>
       </c>
-      <c r="BE5" s="15">
+      <c r="BE5" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF5" s="15">
+      <c r="BF5" s="14">
         <v>10</v>
       </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
+      <c r="BG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="14">
         <v>50</v>
       </c>
     </row>
@@ -12671,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="11" t="b">
@@ -12686,134 +12654,134 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>100</v>
       </c>
       <c r="R6" s="16">
         <v>300</v>
       </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="U6" s="15">
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
         <v>20</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="14">
         <v>150</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AG6" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH6" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="17">
+      <c r="AI6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
         <v>52963</v>
       </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="15">
+      <c r="AL6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="14">
         <v>3</v>
       </c>
       <c r="AS6" s="11"/>
-      <c r="AT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="15">
+      <c r="AT6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="14">
         <v>0</v>
       </c>
       <c r="AY6" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
+      <c r="AZ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="14">
         <v>50</v>
       </c>
-      <c r="BB6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="15">
+      <c r="BB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD6" s="15">
+      <c r="BD6" s="14">
         <v>50</v>
       </c>
-      <c r="BE6" s="15">
+      <c r="BE6" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF6" s="15">
+      <c r="BF6" s="14">
         <v>10</v>
       </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
+      <c r="BG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="14">
         <v>50</v>
       </c>
     </row>
@@ -12843,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="11" t="b">
@@ -12858,134 +12826,134 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>100</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>100</v>
       </c>
-      <c r="S7" s="15">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0</v>
-      </c>
-      <c r="U7" s="15">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15">
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
         <v>20</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="14">
         <v>150</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF7" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG7" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH7" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="17">
+      <c r="AI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
         <v>52963</v>
       </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="15">
+      <c r="AL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="14">
         <v>3</v>
       </c>
       <c r="AS7" s="11"/>
-      <c r="AT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="15">
+      <c r="AT7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="14">
         <v>0</v>
       </c>
       <c r="AY7" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
+      <c r="AZ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="14">
         <v>50</v>
       </c>
-      <c r="BB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="15">
+      <c r="BB7" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD7" s="15">
+      <c r="BD7" s="14">
         <v>50</v>
       </c>
-      <c r="BE7" s="15">
+      <c r="BE7" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF7" s="15">
+      <c r="BF7" s="14">
         <v>10</v>
       </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
+      <c r="BG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13030,134 +12998,134 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>100</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>100</v>
       </c>
-      <c r="S8" s="15">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0</v>
-      </c>
-      <c r="U8" s="15">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15">
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
         <v>20</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>150</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AG8" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH8" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="17">
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="15">
         <v>52963</v>
       </c>
-      <c r="AL8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="15">
+      <c r="AL8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="14">
         <v>3</v>
       </c>
       <c r="AS8" s="11"/>
-      <c r="AT8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="15">
+      <c r="AT8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="14">
         <v>0</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="15">
+      <c r="AZ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="14">
         <v>50</v>
       </c>
-      <c r="BB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="15">
+      <c r="BB8" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD8" s="15">
+      <c r="BD8" s="14">
         <v>50</v>
       </c>
-      <c r="BE8" s="15">
+      <c r="BE8" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF8" s="15">
+      <c r="BF8" s="14">
         <v>10</v>
       </c>
-      <c r="BG8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="15">
+      <c r="BG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13187,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="11" t="b">
@@ -13202,134 +13170,134 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>100</v>
       </c>
       <c r="R9" s="16">
         <v>300</v>
       </c>
-      <c r="S9" s="15">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15">
-        <v>0</v>
-      </c>
-      <c r="V9" s="15">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15">
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
         <v>20</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="14">
         <v>150</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AF9" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG9" s="15">
+      <c r="AG9" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH9" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="17">
+      <c r="AI9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="15">
         <v>52963</v>
       </c>
-      <c r="AL9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="15">
+      <c r="AL9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="14">
         <v>3</v>
       </c>
       <c r="AS9" s="11"/>
-      <c r="AT9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="15">
+      <c r="AT9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="14">
         <v>0</v>
       </c>
       <c r="AY9" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="15">
+      <c r="AZ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="14">
         <v>50</v>
       </c>
-      <c r="BB9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="15">
+      <c r="BB9" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD9" s="15">
+      <c r="BD9" s="14">
         <v>50</v>
       </c>
-      <c r="BE9" s="15">
+      <c r="BE9" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF9" s="15">
+      <c r="BF9" s="14">
         <v>10</v>
       </c>
-      <c r="BG9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="15">
+      <c r="BG9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13359,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="11" t="b">
@@ -13374,134 +13342,134 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>100</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <v>100</v>
       </c>
-      <c r="S10" s="15">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
-        <v>0</v>
-      </c>
-      <c r="X10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15">
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
         <v>20</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AC10" s="14">
         <v>150</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AD10" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AE10" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AF10" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG10" s="15">
+      <c r="AG10" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH10" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="17">
+      <c r="AI10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="15">
         <v>52963</v>
       </c>
-      <c r="AL10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="15">
+      <c r="AL10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="14">
         <v>3</v>
       </c>
       <c r="AS10" s="11"/>
-      <c r="AT10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="15">
+      <c r="AT10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="14">
         <v>0</v>
       </c>
       <c r="AY10" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="15">
+      <c r="AZ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="14">
         <v>50</v>
       </c>
-      <c r="BB10" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="15">
+      <c r="BB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD10" s="15">
+      <c r="BD10" s="14">
         <v>50</v>
       </c>
-      <c r="BE10" s="15">
+      <c r="BE10" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF10" s="15">
+      <c r="BF10" s="14">
         <v>10</v>
       </c>
-      <c r="BG10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="15">
+      <c r="BG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13531,7 +13499,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="11" t="b">
@@ -13546,134 +13514,134 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="15">
+      <c r="Q11" s="14">
         <v>100</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <v>100</v>
       </c>
-      <c r="S11" s="15">
-        <v>0</v>
-      </c>
-      <c r="T11" s="15">
-        <v>0</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
-        <v>0</v>
-      </c>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15">
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
         <v>20</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="14">
         <v>150</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG11" s="15">
+      <c r="AG11" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="17">
+      <c r="AI11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="15">
         <v>52963</v>
       </c>
-      <c r="AL11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="15">
+      <c r="AL11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="14">
         <v>3</v>
       </c>
       <c r="AS11" s="11"/>
-      <c r="AT11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="15">
+      <c r="AT11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="14">
         <v>0</v>
       </c>
       <c r="AY11" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ11" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="15">
+      <c r="AZ11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="14">
         <v>50</v>
       </c>
-      <c r="BB11" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="15">
+      <c r="BB11" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD11" s="15">
+      <c r="BD11" s="14">
         <v>50</v>
       </c>
-      <c r="BE11" s="15">
+      <c r="BE11" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF11" s="15">
+      <c r="BF11" s="14">
         <v>10</v>
       </c>
-      <c r="BG11" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="15">
+      <c r="BG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13703,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="11" t="b">
@@ -13718,134 +13686,134 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="15">
+      <c r="Q12" s="14">
         <v>100</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <v>100</v>
       </c>
-      <c r="S12" s="15">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
-        <v>0</v>
-      </c>
-      <c r="U12" s="15">
-        <v>0</v>
-      </c>
-      <c r="V12" s="15">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <v>0</v>
-      </c>
-      <c r="X12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15">
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
         <v>20</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="14">
         <v>150</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG12" s="15">
+      <c r="AG12" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH12" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="17">
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="15">
         <v>52963</v>
       </c>
-      <c r="AL12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="15">
+      <c r="AL12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="14">
         <v>3</v>
       </c>
       <c r="AS12" s="11"/>
-      <c r="AT12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="15">
+      <c r="AT12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="14">
         <v>0</v>
       </c>
       <c r="AY12" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ12" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="15">
+      <c r="AZ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="14">
         <v>50</v>
       </c>
-      <c r="BB12" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="15">
+      <c r="BB12" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD12" s="15">
+      <c r="BD12" s="14">
         <v>50</v>
       </c>
-      <c r="BE12" s="15">
+      <c r="BE12" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF12" s="15">
+      <c r="BF12" s="14">
         <v>10</v>
       </c>
-      <c r="BG12" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="15">
+      <c r="BG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="14">
         <v>50</v>
       </c>
     </row>
@@ -13875,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>59</v>
       </c>
       <c r="K13" s="11" t="b">
@@ -13890,134 +13858,134 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="15">
+      <c r="Q13" s="14">
         <v>100</v>
       </c>
       <c r="R13" s="16">
         <v>300</v>
       </c>
-      <c r="S13" s="15">
-        <v>0</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
-      <c r="V13" s="15">
-        <v>0</v>
-      </c>
-      <c r="W13" s="15">
-        <v>0</v>
-      </c>
-      <c r="X13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15">
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
         <v>20</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="14">
         <v>150</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AD13" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG13" s="15">
+      <c r="AG13" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="17">
+      <c r="AI13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="15">
         <v>52963</v>
       </c>
-      <c r="AL13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="15">
+      <c r="AL13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="14">
         <v>3</v>
       </c>
       <c r="AS13" s="11"/>
-      <c r="AT13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="15">
+      <c r="AT13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="14">
         <v>0</v>
       </c>
       <c r="AY13" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ13" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="15">
+      <c r="AZ13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="14">
         <v>50</v>
       </c>
-      <c r="BB13" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="15">
+      <c r="BB13" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD13" s="15">
+      <c r="BD13" s="14">
         <v>50</v>
       </c>
-      <c r="BE13" s="15">
+      <c r="BE13" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF13" s="15">
+      <c r="BF13" s="14">
         <v>10</v>
       </c>
-      <c r="BG13" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="15">
+      <c r="BG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="14">
         <v>50</v>
       </c>
     </row>
@@ -14025,7 +13993,7 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>358</v>
       </c>
       <c r="C14" s="11">
@@ -14047,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>61</v>
       </c>
       <c r="K14" s="11" t="b">
@@ -14062,134 +14030,134 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="15">
+      <c r="Q14" s="14">
         <v>100</v>
       </c>
       <c r="R14" s="16">
         <v>300</v>
       </c>
-      <c r="S14" s="15">
-        <v>0</v>
-      </c>
-      <c r="T14" s="15">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
-      <c r="V14" s="15">
-        <v>0</v>
-      </c>
-      <c r="W14" s="15">
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
         <v>20</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="14">
         <v>150</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF14" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AG14" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH14" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="17">
+      <c r="AI14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="15">
         <v>52963</v>
       </c>
-      <c r="AL14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="15">
+      <c r="AL14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="14">
         <v>3</v>
       </c>
       <c r="AS14" s="11"/>
-      <c r="AT14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="15">
+      <c r="AT14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="14">
         <v>0</v>
       </c>
       <c r="AY14" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ14" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="15">
+      <c r="AZ14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="14">
         <v>50</v>
       </c>
-      <c r="BB14" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="15">
+      <c r="BB14" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD14" s="15">
+      <c r="BD14" s="14">
         <v>50</v>
       </c>
-      <c r="BE14" s="15">
+      <c r="BE14" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF14" s="15">
+      <c r="BF14" s="14">
         <v>10</v>
       </c>
-      <c r="BG14" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="15">
+      <c r="BG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="14">
         <v>50</v>
       </c>
     </row>
@@ -14219,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>63</v>
       </c>
       <c r="K15" s="11" t="b">
@@ -14234,134 +14202,134 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="15">
+      <c r="Q15" s="14">
         <v>100</v>
       </c>
       <c r="R15" s="16">
         <v>300</v>
       </c>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15">
-        <v>0</v>
-      </c>
-      <c r="V15" s="15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15">
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
         <v>20</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AC15" s="14">
         <v>150</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AD15" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AE15" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF15" s="15">
+      <c r="AF15" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG15" s="15">
+      <c r="AG15" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="17">
+      <c r="AI15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="15">
         <v>52963</v>
       </c>
-      <c r="AL15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="15">
+      <c r="AL15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="14">
         <v>3</v>
       </c>
       <c r="AS15" s="11"/>
-      <c r="AT15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="15">
+      <c r="AT15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="14">
         <v>0</v>
       </c>
       <c r="AY15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ15" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="15">
+      <c r="AZ15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="14">
         <v>50</v>
       </c>
-      <c r="BB15" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="15">
+      <c r="BB15" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD15" s="15">
+      <c r="BD15" s="14">
         <v>50</v>
       </c>
-      <c r="BE15" s="15">
+      <c r="BE15" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF15" s="15">
+      <c r="BF15" s="14">
         <v>10</v>
       </c>
-      <c r="BG15" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="15">
+      <c r="BG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="14">
         <v>50</v>
       </c>
     </row>
@@ -14391,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>53</v>
       </c>
       <c r="K16" s="11" t="b">
@@ -14406,134 +14374,134 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="15">
+      <c r="Q16" s="14">
         <v>100</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="14">
         <v>100</v>
       </c>
-      <c r="S16" s="15">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
         <v>20</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC16" s="15">
+      <c r="AC16" s="14">
         <v>150</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AD16" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE16" s="15">
+      <c r="AE16" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF16" s="15">
+      <c r="AF16" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG16" s="15">
+      <c r="AG16" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="17">
+      <c r="AI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="15">
         <v>52963</v>
       </c>
-      <c r="AL16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="15">
+      <c r="AL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="14">
         <v>3</v>
       </c>
       <c r="AS16" s="11"/>
-      <c r="AT16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="15">
+      <c r="AT16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="14">
         <v>0</v>
       </c>
       <c r="AY16" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ16" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="15">
+      <c r="AZ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="14">
         <v>50</v>
       </c>
-      <c r="BB16" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="15">
+      <c r="BB16" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD16" s="15">
+      <c r="BD16" s="14">
         <v>50</v>
       </c>
-      <c r="BE16" s="15">
+      <c r="BE16" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF16" s="15">
+      <c r="BF16" s="14">
         <v>10</v>
       </c>
-      <c r="BG16" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="15">
+      <c r="BG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="14">
         <v>50</v>
       </c>
     </row>
@@ -14563,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K17" s="11" t="b">
@@ -14578,134 +14546,134 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>100</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>100</v>
       </c>
-      <c r="S17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0</v>
-      </c>
-      <c r="U17" s="15">
-        <v>0</v>
-      </c>
-      <c r="V17" s="15">
-        <v>0</v>
-      </c>
-      <c r="W17" s="15">
-        <v>0</v>
-      </c>
-      <c r="X17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15">
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
         <v>20</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AC17" s="14">
         <v>150</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AD17" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE17" s="15">
+      <c r="AE17" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF17" s="15">
+      <c r="AF17" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG17" s="15">
+      <c r="AG17" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="17">
+      <c r="AI17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="15">
         <v>52963</v>
       </c>
-      <c r="AL17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="15">
+      <c r="AL17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="14">
         <v>3</v>
       </c>
       <c r="AS17" s="11"/>
-      <c r="AT17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="15">
+      <c r="AT17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="14">
         <v>0</v>
       </c>
       <c r="AY17" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ17" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="15">
+      <c r="AZ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="14">
         <v>50</v>
       </c>
-      <c r="BB17" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="15">
+      <c r="BB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD17" s="15">
+      <c r="BD17" s="14">
         <v>50</v>
       </c>
-      <c r="BE17" s="15">
+      <c r="BE17" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF17" s="15">
+      <c r="BF17" s="14">
         <v>10</v>
       </c>
-      <c r="BG17" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="15">
+      <c r="BG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="14">
         <v>50</v>
       </c>
     </row>
@@ -14735,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K18" s="11" t="b">
@@ -14750,134 +14718,134 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="15">
+      <c r="Q18" s="14">
         <v>100</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="14">
         <v>100</v>
       </c>
-      <c r="S18" s="15">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
-        <v>0</v>
-      </c>
-      <c r="V18" s="15">
-        <v>0</v>
-      </c>
-      <c r="W18" s="15">
-        <v>0</v>
-      </c>
-      <c r="X18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15">
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
         <v>20</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="14">
         <v>0.200000003</v>
       </c>
-      <c r="AC18" s="15">
+      <c r="AC18" s="14">
         <v>150</v>
       </c>
-      <c r="AD18" s="15">
+      <c r="AD18" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AE18" s="15">
+      <c r="AE18" s="14">
         <v>6.67000008</v>
       </c>
-      <c r="AF18" s="15">
+      <c r="AF18" s="14">
         <v>23.0769234</v>
       </c>
-      <c r="AG18" s="15">
+      <c r="AG18" s="14">
         <v>15.3846149</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="17">
+      <c r="AI18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="15">
         <v>52963</v>
       </c>
-      <c r="AL18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="15">
+      <c r="AL18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="14">
         <v>3</v>
       </c>
       <c r="AS18" s="11"/>
-      <c r="AT18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="15">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="15">
+      <c r="AT18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="14">
         <v>0</v>
       </c>
       <c r="AY18" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ18" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="15">
+      <c r="AZ18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="14">
         <v>50</v>
       </c>
-      <c r="BB18" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="15">
+      <c r="BB18" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="14">
         <v>0.150000006</v>
       </c>
-      <c r="BD18" s="15">
+      <c r="BD18" s="14">
         <v>50</v>
       </c>
-      <c r="BE18" s="15">
+      <c r="BE18" s="14">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF18" s="15">
+      <c r="BF18" s="14">
         <v>10</v>
       </c>
-      <c r="BG18" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="15">
+      <c r="BG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="14">
         <v>50</v>
       </c>
     </row>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cable" sheetId="1" r:id="rId1"/>
@@ -29,25 +29,12 @@
     <sheet name="battery" sheetId="20" r:id="rId20"/>
     <sheet name="indmotor" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="547">
   <si>
     <t>Index</t>
   </si>
@@ -1646,6 +1633,9 @@
   </si>
   <si>
     <t>050000000000484300005C4366463B440000CE440AD7233B</t>
+  </si>
+  <si>
+    <t>Battery2</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -1690,7 +1680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1726,6 +1716,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1739,6 +1757,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1778,21 +1804,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1843,28 +1854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,13 +1887,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,19 +1953,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,18 +2001,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1976,30 +2008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,19 +2031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,12 +2050,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,6 +2091,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2129,21 +2134,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2200,148 +2190,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2379,20 +2369,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2424,52 +2414,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2773,21 +2763,21 @@
       <selection activeCell="C25" sqref="C25:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.84545454545455" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.53636363636364" style="24" customWidth="1"/>
-    <col min="3" max="4" width="29.8090909090909" style="24" customWidth="1"/>
-    <col min="5" max="5" width="6.07272727272727" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.6272727272727" style="24" customWidth="1"/>
-    <col min="7" max="7" width="17.8727272727273" style="24" customWidth="1"/>
-    <col min="8" max="8" width="14.1272727272727" style="24" customWidth="1"/>
-    <col min="9" max="9" width="21.6272727272727" style="24" customWidth="1"/>
-    <col min="10" max="10" width="22.8727272727273" style="24" customWidth="1"/>
-    <col min="11" max="13" width="13.7545454545455" style="24" customWidth="1"/>
-    <col min="14" max="14" width="12.8727272727273" style="24" customWidth="1"/>
-    <col min="15" max="15" width="11.6272727272727" style="24" customWidth="1"/>
-    <col min="16" max="16" width="12.8727272727273" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.84166666666667" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.53333333333333" style="24" customWidth="1"/>
+    <col min="3" max="4" width="29.8083333333333" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.075" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="24" customWidth="1"/>
+    <col min="11" max="13" width="13.7583333333333" style="24" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="24" customWidth="1"/>
     <col min="17" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -4156,7 +4146,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -4265,7 +4255,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -4344,12 +4334,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.84545454545455" customWidth="1"/>
-    <col min="2" max="2" width="39.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="25.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="6.84166666666667" customWidth="1"/>
+    <col min="2" max="2" width="39.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="27.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4393,7 +4383,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4407,7 +4397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4421,7 +4411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4435,7 +4425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4449,7 +4439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4463,7 +4453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4477,7 +4467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4491,7 +4481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4505,7 +4495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4530,28 +4520,28 @@
   <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="20.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="11.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="17.8727272727273" customWidth="1"/>
-    <col min="5" max="6" width="16.6272727272727" customWidth="1"/>
-    <col min="7" max="7" width="10.3727272727273" customWidth="1"/>
-    <col min="8" max="8" width="11.6272727272727" customWidth="1"/>
-    <col min="9" max="9" width="10.3727272727273" customWidth="1"/>
-    <col min="10" max="10" width="15.3727272727273" customWidth="1"/>
-    <col min="11" max="11" width="14.1272727272727" customWidth="1"/>
-    <col min="12" max="12" width="5.87272727272727" customWidth="1"/>
-    <col min="13" max="13" width="11.6272727272727" customWidth="1"/>
-    <col min="14" max="15" width="12.8727272727273" customWidth="1"/>
-    <col min="16" max="16" width="19.1272727272727" customWidth="1"/>
-    <col min="17" max="17" width="14.1272727272727" customWidth="1"/>
-    <col min="18" max="20" width="12.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="5.875" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="20" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4941,25 +4931,25 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="20.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="5.37272727272727" customWidth="1"/>
-    <col min="5" max="5" width="11.6272727272727" customWidth="1"/>
-    <col min="6" max="6" width="17.8727272727273" customWidth="1"/>
-    <col min="7" max="7" width="9.37272727272727" customWidth="1"/>
-    <col min="8" max="8" width="8.12727272727273" customWidth="1"/>
-    <col min="9" max="9" width="20.6272727272727" customWidth="1"/>
-    <col min="10" max="10" width="11.6272727272727" customWidth="1"/>
-    <col min="11" max="11" width="10.3727272727273" customWidth="1"/>
-    <col min="12" max="12" width="14.1272727272727" customWidth="1"/>
-    <col min="13" max="13" width="16.6272727272727" customWidth="1"/>
-    <col min="14" max="14" width="5.87272727272727" customWidth="1"/>
-    <col min="15" max="15" width="11.6272727272727" customWidth="1"/>
-    <col min="16" max="17" width="12.8727272727273" customWidth="1"/>
-    <col min="18" max="18" width="19.1272727272727" customWidth="1"/>
-    <col min="19" max="19" width="14.1272727272727" customWidth="1"/>
-    <col min="20" max="22" width="12.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="5.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="19.125" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="22" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5181,9 +5171,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="10" max="10" width="21.6272727272727" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5257,7 +5247,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5292,7 +5282,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
@@ -5383,7 +5373,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -5441,10 +5431,10 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="19" max="19" width="21.6272727272727" customWidth="1"/>
-    <col min="20" max="20" width="20.6272727272727" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="20" max="20" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">
@@ -7144,7 +7134,7 @@
       <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
@@ -7352,7 +7342,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -7455,16 +7445,16 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="16" max="16" width="11.5"/>
-    <col min="21" max="21" width="12.6272727272727"/>
+    <col min="21" max="21" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -7690,6 +7680,119 @@
         <v>531</v>
       </c>
       <c r="AK2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2185560065</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3220</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.100000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>110</v>
+      </c>
+      <c r="X3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK3" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7708,7 +7811,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
@@ -7718,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7739,13 +7842,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -7769,19 +7872,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -7790,19 +7893,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>
@@ -7820,26 +7923,26 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.84545454545455" customWidth="1"/>
-    <col min="2" max="2" width="34.9818181818182" customWidth="1"/>
-    <col min="3" max="3" width="13.9363636363636" customWidth="1"/>
-    <col min="4" max="4" width="18.3909090909091" customWidth="1"/>
-    <col min="5" max="5" width="20.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.2272727272727" customWidth="1"/>
-    <col min="7" max="7" width="14.8090909090909" customWidth="1"/>
-    <col min="8" max="8" width="5.77272727272727" customWidth="1"/>
-    <col min="9" max="9" width="10.0272727272727" customWidth="1"/>
+    <col min="1" max="1" width="6.84166666666667" customWidth="1"/>
+    <col min="2" max="2" width="34.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.3916666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.7083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.225" customWidth="1"/>
+    <col min="7" max="7" width="14.8083333333333" customWidth="1"/>
+    <col min="8" max="8" width="5.775" customWidth="1"/>
+    <col min="9" max="9" width="10.025" customWidth="1"/>
     <col min="10" max="10" width="7.9" customWidth="1"/>
-    <col min="11" max="11" width="19.5181818181818" customWidth="1"/>
-    <col min="12" max="12" width="11.2272727272727" customWidth="1"/>
-    <col min="13" max="13" width="5.77272727272727" customWidth="1"/>
-    <col min="14" max="15" width="11.2272727272727" customWidth="1"/>
-    <col min="16" max="16" width="5.77272727272727" customWidth="1"/>
+    <col min="11" max="11" width="19.5166666666667" customWidth="1"/>
+    <col min="12" max="12" width="11.225" customWidth="1"/>
+    <col min="13" max="13" width="5.775" customWidth="1"/>
+    <col min="14" max="15" width="11.225" customWidth="1"/>
+    <col min="16" max="16" width="5.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7892,7 +7995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:16">
+    <row r="2" ht="14.25" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7939,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:16">
+    <row r="3" ht="14.25" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7986,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:16">
+    <row r="4" ht="14.25" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8033,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:16">
+    <row r="5" ht="14.25" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8080,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:16">
+    <row r="6" ht="14.25" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8127,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:16">
+    <row r="7" ht="14.25" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8174,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:16">
+    <row r="8" ht="14.25" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8221,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:16">
+    <row r="9" ht="14.25" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8268,7 +8371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:16">
+    <row r="10" ht="14.25" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8315,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:16">
+    <row r="11" ht="14.25" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8362,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:16">
+    <row r="12" ht="14.25" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8409,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:16">
+    <row r="13" ht="14.25" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8456,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:16">
+    <row r="14" ht="14.25" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8503,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:16">
+    <row r="15" ht="14.25" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8550,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:16">
+    <row r="16" ht="14.25" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8597,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:16">
+    <row r="17" ht="14.25" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8644,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:16">
+    <row r="18" ht="14.25" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8691,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:16">
+    <row r="19" ht="14.25" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8738,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:16">
+    <row r="20" ht="14.25" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8785,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:16">
+    <row r="21" ht="14.25" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8832,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:16">
+    <row r="22" ht="14.25" spans="1:16">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8879,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:16">
+    <row r="23" ht="14.25" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8926,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:16">
+    <row r="24" ht="14.25" spans="1:16">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8973,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:16">
+    <row r="25" ht="14.25" spans="1:16">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9020,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:16">
+    <row r="26" ht="14.25" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9082,7 +9185,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
@@ -9194,7 +9297,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -9275,11 +9378,11 @@
   <sheetPr/>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="5" max="6" width="11.5"/>
     <col min="23" max="24" width="11.5"/>
@@ -9424,7 +9527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:45">
+    <row r="2" ht="14.25" spans="1:45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9561,7 +9664,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:45">
+    <row r="3" ht="14.25" spans="1:45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9713,7 +9816,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
@@ -9936,18 +10039,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.8272727272727" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455"/>
-    <col min="12" max="12" width="12.6272727272727"/>
+    <col min="3" max="3" width="22.825" customWidth="1"/>
+    <col min="9" max="9" width="13.7583333333333"/>
+    <col min="12" max="12" width="12.625"/>
     <col min="17" max="17" width="11.5"/>
     <col min="22" max="22" width="11.5"/>
     <col min="27" max="27" width="11.5"/>
     <col min="31" max="31" width="11.5"/>
     <col min="37" max="37" width="11.5"/>
     <col min="39" max="39" width="11.5"/>
-    <col min="41" max="41" width="9.37272727272727"/>
+    <col min="41" max="41" width="9.375"/>
     <col min="54" max="55" width="11.5"/>
   </cols>
   <sheetData>
@@ -11905,14 +12008,14 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="27.6333333333333" customWidth="1"/>
     <col min="10" max="10" width="31" style="9" customWidth="1"/>
-    <col min="28" max="28" width="12.8181818181818"/>
-    <col min="30" max="33" width="11.7272727272727"/>
-    <col min="37" max="37" width="9.54545454545454"/>
-    <col min="55" max="55" width="12.8181818181818"/>
+    <col min="28" max="28" width="12.8166666666667"/>
+    <col min="30" max="33" width="11.725"/>
+    <col min="37" max="37" width="9.54166666666667"/>
+    <col min="55" max="55" width="12.8166666666667"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:60">
@@ -12123,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="11" t="b">
@@ -12138,134 +12241,134 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="14">
+      <c r="Q3" s="15">
         <v>100</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="15">
         <v>100</v>
       </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="14">
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0</v>
+      </c>
+      <c r="W3" s="15">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="15">
         <v>20</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="15">
         <v>150</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH3" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="15">
+      <c r="AI3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="17">
         <v>52963</v>
       </c>
-      <c r="AL3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="14">
+      <c r="AL3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="15">
         <v>3</v>
       </c>
       <c r="AS3" s="11"/>
-      <c r="AT3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="14">
+      <c r="AT3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="15">
         <v>0</v>
       </c>
       <c r="AY3" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="14">
+      <c r="AZ3" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="15">
         <v>50</v>
       </c>
-      <c r="BB3" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="14">
+      <c r="BB3" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD3" s="14">
+      <c r="BD3" s="15">
         <v>50</v>
       </c>
-      <c r="BE3" s="14">
+      <c r="BE3" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF3" s="14">
+      <c r="BF3" s="15">
         <v>10</v>
       </c>
-      <c r="BG3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="14">
+      <c r="BG3" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="15">
         <v>50</v>
       </c>
     </row>
@@ -12295,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="11" t="b">
@@ -12310,134 +12413,134 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="14">
+      <c r="Q4" s="15">
         <v>100</v>
       </c>
       <c r="R4" s="16">
         <v>300</v>
       </c>
-      <c r="S4" s="14">
-        <v>0</v>
-      </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="14">
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
         <v>20</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="15">
         <v>150</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH4" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="15">
+      <c r="AI4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="17">
         <v>52963</v>
       </c>
-      <c r="AL4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="14">
+      <c r="AL4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="15">
         <v>3</v>
       </c>
       <c r="AS4" s="11"/>
-      <c r="AT4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="14">
+      <c r="AT4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="15">
         <v>0</v>
       </c>
       <c r="AY4" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="14">
+      <c r="AZ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="15">
         <v>50</v>
       </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
+      <c r="BB4" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD4" s="14">
+      <c r="BD4" s="15">
         <v>50</v>
       </c>
-      <c r="BE4" s="14">
+      <c r="BE4" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF4" s="14">
+      <c r="BF4" s="15">
         <v>10</v>
       </c>
-      <c r="BG4" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="14">
+      <c r="BG4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="15">
         <v>50</v>
       </c>
     </row>
@@ -12445,7 +12548,7 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="11">
@@ -12467,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="11" t="b">
@@ -12482,134 +12585,134 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="14">
+      <c r="Q5" s="15">
         <v>100</v>
       </c>
       <c r="R5" s="16">
         <v>300</v>
       </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14">
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
         <v>20</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="15">
         <v>150</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH5" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
+      <c r="AI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="17">
         <v>52963</v>
       </c>
-      <c r="AL5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="14">
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="15">
         <v>3</v>
       </c>
       <c r="AS5" s="11"/>
-      <c r="AT5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="14">
+      <c r="AT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="15">
         <v>0</v>
       </c>
       <c r="AY5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="14">
+      <c r="AZ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
         <v>50</v>
       </c>
-      <c r="BB5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="14">
+      <c r="BB5" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD5" s="14">
+      <c r="BD5" s="15">
         <v>50</v>
       </c>
-      <c r="BE5" s="14">
+      <c r="BE5" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF5" s="14">
+      <c r="BF5" s="15">
         <v>10</v>
       </c>
-      <c r="BG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="14">
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
         <v>50</v>
       </c>
     </row>
@@ -12639,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="11" t="b">
@@ -12654,134 +12757,134 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="14">
+      <c r="Q6" s="15">
         <v>100</v>
       </c>
       <c r="R6" s="16">
         <v>300</v>
       </c>
-      <c r="S6" s="14">
-        <v>0</v>
-      </c>
-      <c r="T6" s="14">
-        <v>0</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
         <v>20</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="15">
         <v>150</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH6" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
+      <c r="AI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="17">
         <v>52963</v>
       </c>
-      <c r="AL6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="14">
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="15">
         <v>3</v>
       </c>
       <c r="AS6" s="11"/>
-      <c r="AT6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="14">
+      <c r="AT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="15">
         <v>0</v>
       </c>
       <c r="AY6" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="14">
+      <c r="AZ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
         <v>50</v>
       </c>
-      <c r="BB6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="14">
+      <c r="BB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD6" s="14">
+      <c r="BD6" s="15">
         <v>50</v>
       </c>
-      <c r="BE6" s="14">
+      <c r="BE6" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF6" s="14">
+      <c r="BF6" s="15">
         <v>10</v>
       </c>
-      <c r="BG6" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="14">
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
         <v>50</v>
       </c>
     </row>
@@ -12811,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="11" t="b">
@@ -12826,134 +12929,134 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <v>100</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="15">
         <v>100</v>
       </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
-        <v>0</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
-      </c>
-      <c r="X7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
         <v>20</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="15">
         <v>150</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH7" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
+      <c r="AI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="17">
         <v>52963</v>
       </c>
-      <c r="AL7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="14">
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="15">
         <v>3</v>
       </c>
       <c r="AS7" s="11"/>
-      <c r="AT7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="14">
+      <c r="AT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="15">
         <v>0</v>
       </c>
       <c r="AY7" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="14">
+      <c r="AZ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
         <v>50</v>
       </c>
-      <c r="BB7" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="14">
+      <c r="BB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD7" s="14">
+      <c r="BD7" s="15">
         <v>50</v>
       </c>
-      <c r="BE7" s="14">
+      <c r="BE7" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF7" s="14">
+      <c r="BF7" s="15">
         <v>10</v>
       </c>
-      <c r="BG7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="14">
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
         <v>50</v>
       </c>
     </row>
@@ -12998,134 +13101,134 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="14">
+      <c r="Q8" s="15">
         <v>100</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="15">
         <v>100</v>
       </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="14">
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15">
         <v>20</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="15">
         <v>150</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH8" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="15">
+      <c r="AI8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
         <v>52963</v>
       </c>
-      <c r="AL8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="14">
+      <c r="AL8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="15">
         <v>3</v>
       </c>
       <c r="AS8" s="11"/>
-      <c r="AT8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="14">
+      <c r="AT8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="15">
         <v>0</v>
       </c>
       <c r="AY8" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="14">
+      <c r="AZ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="15">
         <v>50</v>
       </c>
-      <c r="BB8" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="14">
+      <c r="BB8" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD8" s="14">
+      <c r="BD8" s="15">
         <v>50</v>
       </c>
-      <c r="BE8" s="14">
+      <c r="BE8" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF8" s="14">
+      <c r="BF8" s="15">
         <v>10</v>
       </c>
-      <c r="BG8" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="14">
+      <c r="BG8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13155,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="11" t="b">
@@ -13170,134 +13273,134 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="14">
+      <c r="Q9" s="15">
         <v>100</v>
       </c>
       <c r="R9" s="16">
         <v>300</v>
       </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14">
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15">
         <v>20</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="15">
         <v>150</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH9" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="15">
+      <c r="AI9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="17">
         <v>52963</v>
       </c>
-      <c r="AL9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="14">
+      <c r="AL9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="15">
         <v>3</v>
       </c>
       <c r="AS9" s="11"/>
-      <c r="AT9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="14">
+      <c r="AT9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="15">
         <v>0</v>
       </c>
       <c r="AY9" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ9" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="14">
+      <c r="AZ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="15">
         <v>50</v>
       </c>
-      <c r="BB9" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="14">
+      <c r="BB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD9" s="14">
+      <c r="BD9" s="15">
         <v>50</v>
       </c>
-      <c r="BE9" s="14">
+      <c r="BE9" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF9" s="14">
+      <c r="BF9" s="15">
         <v>10</v>
       </c>
-      <c r="BG9" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="14">
+      <c r="BG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13327,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="11" t="b">
@@ -13342,134 +13445,134 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="14">
+      <c r="Q10" s="15">
         <v>100</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="15">
         <v>100</v>
       </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
         <v>20</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AC10" s="15">
         <v>150</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AD10" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH10" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="15">
+      <c r="AI10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="17">
         <v>52963</v>
       </c>
-      <c r="AL10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="14">
+      <c r="AL10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="15">
         <v>3</v>
       </c>
       <c r="AS10" s="11"/>
-      <c r="AT10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="14">
+      <c r="AT10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="15">
         <v>0</v>
       </c>
       <c r="AY10" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ10" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="14">
+      <c r="AZ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="15">
         <v>50</v>
       </c>
-      <c r="BB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="14">
+      <c r="BB10" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD10" s="14">
+      <c r="BD10" s="15">
         <v>50</v>
       </c>
-      <c r="BE10" s="14">
+      <c r="BE10" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF10" s="14">
+      <c r="BF10" s="15">
         <v>10</v>
       </c>
-      <c r="BG10" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="14">
+      <c r="BG10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13499,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="11" t="b">
@@ -13514,134 +13617,134 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="14">
+      <c r="Q11" s="15">
         <v>100</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="15">
         <v>100</v>
       </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14">
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15">
         <v>20</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="15">
         <v>150</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="15">
+      <c r="AI11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17">
         <v>52963</v>
       </c>
-      <c r="AL11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="14">
+      <c r="AL11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="15">
         <v>3</v>
       </c>
       <c r="AS11" s="11"/>
-      <c r="AT11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="14">
+      <c r="AT11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="15">
         <v>0</v>
       </c>
       <c r="AY11" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="14">
+      <c r="AZ11" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="15">
         <v>50</v>
       </c>
-      <c r="BB11" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="14">
+      <c r="BB11" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD11" s="14">
+      <c r="BD11" s="15">
         <v>50</v>
       </c>
-      <c r="BE11" s="14">
+      <c r="BE11" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF11" s="14">
+      <c r="BF11" s="15">
         <v>10</v>
       </c>
-      <c r="BG11" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="14">
+      <c r="BG11" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13671,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="11" t="b">
@@ -13686,134 +13789,134 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="14">
+      <c r="Q12" s="15">
         <v>100</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="15">
         <v>100</v>
       </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="14">
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
         <v>20</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AB12" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AC12" s="15">
         <v>150</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AD12" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH12" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="15">
+      <c r="AI12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="17">
         <v>52963</v>
       </c>
-      <c r="AL12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="14">
+      <c r="AL12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="15">
         <v>3</v>
       </c>
       <c r="AS12" s="11"/>
-      <c r="AT12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="14">
+      <c r="AT12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="15">
         <v>0</v>
       </c>
       <c r="AY12" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="14">
+      <c r="AZ12" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="15">
         <v>50</v>
       </c>
-      <c r="BB12" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="14">
+      <c r="BB12" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD12" s="14">
+      <c r="BD12" s="15">
         <v>50</v>
       </c>
-      <c r="BE12" s="14">
+      <c r="BE12" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF12" s="14">
+      <c r="BF12" s="15">
         <v>10</v>
       </c>
-      <c r="BG12" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="14">
+      <c r="BG12" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13843,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="K13" s="11" t="b">
@@ -13858,134 +13961,134 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="14">
+      <c r="Q13" s="15">
         <v>100</v>
       </c>
       <c r="R13" s="16">
         <v>300</v>
       </c>
-      <c r="S13" s="14">
-        <v>0</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="14">
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
         <v>20</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="15">
         <v>150</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="15">
+      <c r="AI13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
         <v>52963</v>
       </c>
-      <c r="AL13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="14">
+      <c r="AL13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="15">
         <v>3</v>
       </c>
       <c r="AS13" s="11"/>
-      <c r="AT13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="14">
+      <c r="AT13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="15">
         <v>0</v>
       </c>
       <c r="AY13" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="14">
+      <c r="AZ13" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="15">
         <v>50</v>
       </c>
-      <c r="BB13" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="14">
+      <c r="BB13" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD13" s="14">
+      <c r="BD13" s="15">
         <v>50</v>
       </c>
-      <c r="BE13" s="14">
+      <c r="BE13" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF13" s="14">
+      <c r="BF13" s="15">
         <v>10</v>
       </c>
-      <c r="BG13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="14">
+      <c r="BG13" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="15">
         <v>50</v>
       </c>
     </row>
@@ -13993,7 +14096,7 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>358</v>
       </c>
       <c r="C14" s="11">
@@ -14015,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>61</v>
       </c>
       <c r="K14" s="11" t="b">
@@ -14030,134 +14133,134 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="14">
+      <c r="Q14" s="15">
         <v>100</v>
       </c>
       <c r="R14" s="16">
         <v>300</v>
       </c>
-      <c r="S14" s="14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-      <c r="V14" s="14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
         <v>20</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="15">
         <v>150</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH14" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="15">
+      <c r="AI14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
         <v>52963</v>
       </c>
-      <c r="AL14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="14">
+      <c r="AL14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="15">
         <v>3</v>
       </c>
       <c r="AS14" s="11"/>
-      <c r="AT14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="14">
+      <c r="AT14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="15">
         <v>0</v>
       </c>
       <c r="AY14" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="14">
+      <c r="AZ14" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="15">
         <v>50</v>
       </c>
-      <c r="BB14" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="14">
+      <c r="BB14" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD14" s="14">
+      <c r="BD14" s="15">
         <v>50</v>
       </c>
-      <c r="BE14" s="14">
+      <c r="BE14" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF14" s="14">
+      <c r="BF14" s="15">
         <v>10</v>
       </c>
-      <c r="BG14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="14">
+      <c r="BG14" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="15">
         <v>50</v>
       </c>
     </row>
@@ -14187,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="K15" s="11" t="b">
@@ -14202,134 +14305,134 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="14">
+      <c r="Q15" s="15">
         <v>100</v>
       </c>
       <c r="R15" s="16">
         <v>300</v>
       </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
-      <c r="X15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="14">
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15">
         <v>20</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB15" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AC15" s="15">
         <v>150</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AD15" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AG15" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="15">
+      <c r="AI15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17">
         <v>52963</v>
       </c>
-      <c r="AL15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="14">
+      <c r="AL15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="15">
         <v>3</v>
       </c>
       <c r="AS15" s="11"/>
-      <c r="AT15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="14">
+      <c r="AT15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="15">
         <v>0</v>
       </c>
       <c r="AY15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="14">
+      <c r="AZ15" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="15">
         <v>50</v>
       </c>
-      <c r="BB15" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="14">
+      <c r="BB15" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD15" s="14">
+      <c r="BD15" s="15">
         <v>50</v>
       </c>
-      <c r="BE15" s="14">
+      <c r="BE15" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF15" s="14">
+      <c r="BF15" s="15">
         <v>10</v>
       </c>
-      <c r="BG15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="14">
+      <c r="BG15" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="15">
         <v>50</v>
       </c>
     </row>
@@ -14359,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>53</v>
       </c>
       <c r="K16" s="11" t="b">
@@ -14374,134 +14477,134 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="14">
+      <c r="Q16" s="15">
         <v>100</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="15">
         <v>100</v>
       </c>
-      <c r="S16" s="14">
-        <v>0</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14">
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15">
         <v>20</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AC16" s="15">
         <v>150</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AD16" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AG16" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="15">
+      <c r="AI16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="17">
         <v>52963</v>
       </c>
-      <c r="AL16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="14">
+      <c r="AL16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="15">
         <v>3</v>
       </c>
       <c r="AS16" s="11"/>
-      <c r="AT16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="14">
+      <c r="AT16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="15">
         <v>0</v>
       </c>
       <c r="AY16" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ16" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="14">
+      <c r="AZ16" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="15">
         <v>50</v>
       </c>
-      <c r="BB16" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="14">
+      <c r="BB16" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD16" s="14">
+      <c r="BD16" s="15">
         <v>50</v>
       </c>
-      <c r="BE16" s="14">
+      <c r="BE16" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF16" s="14">
+      <c r="BF16" s="15">
         <v>10</v>
       </c>
-      <c r="BG16" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="14">
+      <c r="BG16" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="15">
         <v>50</v>
       </c>
     </row>
@@ -14531,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="K17" s="11" t="b">
@@ -14546,134 +14649,134 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="14">
+      <c r="Q17" s="15">
         <v>100</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="15">
         <v>100</v>
       </c>
-      <c r="S17" s="14">
-        <v>0</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="14">
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="15">
         <v>20</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="15">
         <v>150</v>
       </c>
-      <c r="AD17" s="14">
+      <c r="AD17" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="15">
+      <c r="AI17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="17">
         <v>52963</v>
       </c>
-      <c r="AL17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="14">
+      <c r="AL17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="15">
         <v>3</v>
       </c>
       <c r="AS17" s="11"/>
-      <c r="AT17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="14">
+      <c r="AT17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="15">
         <v>0</v>
       </c>
       <c r="AY17" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ17" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="14">
+      <c r="AZ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="15">
         <v>50</v>
       </c>
-      <c r="BB17" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="14">
+      <c r="BB17" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD17" s="14">
+      <c r="BD17" s="15">
         <v>50</v>
       </c>
-      <c r="BE17" s="14">
+      <c r="BE17" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF17" s="14">
+      <c r="BF17" s="15">
         <v>10</v>
       </c>
-      <c r="BG17" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="14">
+      <c r="BG17" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="15">
         <v>50</v>
       </c>
     </row>
@@ -14703,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="K18" s="11" t="b">
@@ -14718,134 +14821,134 @@
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="14">
+      <c r="Q18" s="15">
         <v>100</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="15">
         <v>100</v>
       </c>
-      <c r="S18" s="14">
-        <v>0</v>
-      </c>
-      <c r="T18" s="14">
-        <v>0</v>
-      </c>
-      <c r="U18" s="14">
-        <v>0</v>
-      </c>
-      <c r="V18" s="14">
-        <v>0</v>
-      </c>
-      <c r="W18" s="14">
-        <v>0</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="14">
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15">
         <v>20</v>
       </c>
-      <c r="AB18" s="14">
+      <c r="AB18" s="15">
         <v>0.200000003</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="15">
         <v>150</v>
       </c>
-      <c r="AD18" s="14">
+      <c r="AD18" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AE18" s="15">
         <v>6.67000008</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF18" s="15">
         <v>23.0769234</v>
       </c>
-      <c r="AG18" s="14">
+      <c r="AG18" s="15">
         <v>15.3846149</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AI18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="15">
+      <c r="AI18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="17">
         <v>52963</v>
       </c>
-      <c r="AL18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="14">
+      <c r="AL18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="15">
         <v>3</v>
       </c>
       <c r="AS18" s="11"/>
-      <c r="AT18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="14">
+      <c r="AT18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="15">
         <v>0</v>
       </c>
       <c r="AY18" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AZ18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="14">
+      <c r="AZ18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="15">
         <v>50</v>
       </c>
-      <c r="BB18" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="14">
+      <c r="BB18" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="15">
         <v>0.150000006</v>
       </c>
-      <c r="BD18" s="14">
+      <c r="BD18" s="15">
         <v>50</v>
       </c>
-      <c r="BE18" s="14">
+      <c r="BE18" s="15">
         <v>0.0199999995529651</v>
       </c>
-      <c r="BF18" s="14">
+      <c r="BF18" s="15">
         <v>10</v>
       </c>
-      <c r="BG18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="14">
+      <c r="BG18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="15">
         <v>50</v>
       </c>
     </row>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="cable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="549">
   <si>
     <t>Index</t>
   </si>
@@ -1636,6 +1636,12 @@
   </si>
   <si>
     <t>Battery2</t>
+  </si>
+  <si>
+    <t>Battery3</t>
+  </si>
+  <si>
+    <t>Battery4</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -7445,13 +7451,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="16" max="16" width="11.5"/>
     <col min="21" max="21" width="12.625"/>
@@ -7793,6 +7799,232 @@
         <v>531</v>
       </c>
       <c r="AK3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2185560065</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3220</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.100000001</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>110</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2185560065</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3220</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.100000001</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>110</v>
+      </c>
+      <c r="X5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7821,13 +8053,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7842,13 +8074,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -7872,19 +8104,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -7893,19 +8125,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>
@@ -7923,7 +8155,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9378,8 +9610,8 @@
   <sheetPr/>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="9" activeTab="19"/>
+    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="cable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="550">
   <si>
     <t>Index</t>
   </si>
@@ -1642,6 +1642,9 @@
   </si>
   <si>
     <t>Battery4</t>
+  </si>
+  <si>
+    <t>Battery5</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -7451,13 +7454,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="16" max="16" width="11.5"/>
     <col min="21" max="21" width="12.625"/>
@@ -8025,6 +8028,119 @@
         <v>531</v>
       </c>
       <c r="AK5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>100</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2185560065</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3220</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.00100000005</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.100000001</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK6" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8053,13 +8169,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8074,13 +8190,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -8104,19 +8220,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -8125,19 +8241,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>
@@ -8155,7 +8271,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9610,7 +9726,7 @@
   <sheetPr/>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="554">
   <si>
     <t>Index</t>
   </si>
@@ -1638,13 +1638,25 @@
     <t>Battery2</t>
   </si>
   <si>
+    <t>Bus_观龙20队公变1</t>
+  </si>
+  <si>
     <t>Battery3</t>
   </si>
   <si>
+    <t>Bus_观龙大站2A公变房1</t>
+  </si>
+  <si>
     <t>Battery4</t>
   </si>
   <si>
+    <t>Bus_观龙大站公变房#1变压器1</t>
+  </si>
+  <si>
     <t>Battery5</t>
+  </si>
+  <si>
+    <t>Bus_观龙村19队2号#1公变1</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -7457,7 +7469,7 @@
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7721,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>534</v>
       </c>
       <c r="K3" s="2">
         <v>20</v>
@@ -7810,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7834,7 +7846,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>536</v>
       </c>
       <c r="K4" s="2">
         <v>20</v>
@@ -7923,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7947,7 +7959,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>538</v>
       </c>
       <c r="K5" s="2">
         <v>20</v>
@@ -8036,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -8060,7 +8072,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>540</v>
       </c>
       <c r="K6" s="2">
         <v>20</v>
@@ -8169,13 +8181,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8190,13 +8202,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -8220,19 +8232,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -8241,19 +8253,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="555">
   <si>
     <t>Index</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>Battery1</t>
+  </si>
+  <si>
+    <t>Bus_大刀沙村2号直流1</t>
   </si>
   <si>
     <t>450043002D003200300030003700200020002000200020000000000000003041443730333430762F000030304330373934343030303030303030190008000000</t>
@@ -7469,7 +7472,7 @@
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7620,7 +7623,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>531</v>
       </c>
       <c r="K2" s="2">
         <v>20</v>
@@ -7698,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -7709,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -7733,7 +7736,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K3" s="2">
         <v>20</v>
@@ -7811,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -7822,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7846,7 +7849,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K4" s="2">
         <v>20</v>
@@ -7924,10 +7927,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -7935,7 +7938,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7959,7 +7962,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K5" s="2">
         <v>20</v>
@@ -8037,10 +8040,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -8048,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -8072,7 +8075,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K6" s="2">
         <v>20</v>
@@ -8150,10 +8153,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AK6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8181,13 +8184,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8202,13 +8205,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -8232,19 +8235,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -8253,19 +8256,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="10" activeTab="19"/>
+    <workbookView windowWidth="28800" windowHeight="13380" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="cable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="550">
   <si>
     <t>Index</t>
   </si>
@@ -1629,9 +1629,6 @@
     <t>Battery1</t>
   </si>
   <si>
-    <t>Bus_大刀沙村2号直流1</t>
-  </si>
-  <si>
     <t>450043002D003200300030003700200020002000200020000000000000003041443730333430762F000030304330373934343030303030303030190008000000</t>
   </si>
   <si>
@@ -1641,25 +1638,13 @@
     <t>Battery2</t>
   </si>
   <si>
-    <t>Bus_观龙20队公变1</t>
-  </si>
-  <si>
     <t>Battery3</t>
   </si>
   <si>
-    <t>Bus_观龙大站2A公变房1</t>
-  </si>
-  <si>
     <t>Battery4</t>
   </si>
   <si>
-    <t>Bus_观龙大站公变房#1变压器1</t>
-  </si>
-  <si>
     <t>Battery5</t>
-  </si>
-  <si>
-    <t>Bus_观龙村19队2号#1公变1</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -2784,7 +2769,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7472,7 +7457,7 @@
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7623,7 +7608,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>531</v>
+        <v>298</v>
       </c>
       <c r="K2" s="2">
         <v>20</v>
@@ -7701,10 +7686,10 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK2" t="s">
         <v>532</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -7712,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -7736,7 +7721,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>535</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2">
         <v>20</v>
@@ -7814,10 +7799,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK3" t="s">
         <v>532</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -7825,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7849,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>537</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2">
         <v>20</v>
@@ -7927,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK4" t="s">
         <v>532</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -7938,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7962,7 +7947,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>539</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2">
         <v>20</v>
@@ -8040,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK5" t="s">
         <v>532</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -8051,7 +8036,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -8075,7 +8060,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>541</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2">
         <v>20</v>
@@ -8153,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK6" t="s">
         <v>532</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8184,13 +8169,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8205,13 +8190,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -8235,19 +8220,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -8256,19 +8241,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>

--- a/data/ac_dc_real_case.xlsx
+++ b/data/ac_dc_real_case.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="554">
   <si>
     <t>Index</t>
   </si>
@@ -1638,13 +1638,25 @@
     <t>Battery2</t>
   </si>
   <si>
+    <t>Bus_观龙20队公变1</t>
+  </si>
+  <si>
     <t>Battery3</t>
   </si>
   <si>
+    <t>Bus_观龙大站2A公变房1</t>
+  </si>
+  <si>
     <t>Battery4</t>
   </si>
   <si>
+    <t>Bus_观龙大站公变房#1变压器1</t>
+  </si>
+  <si>
     <t>Battery5</t>
+  </si>
+  <si>
+    <t>Bus_观龙村19队2号#1公变1</t>
   </si>
   <si>
     <t>EFF100</t>
@@ -7457,7 +7469,7 @@
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7721,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>534</v>
       </c>
       <c r="K3" s="2">
         <v>20</v>
@@ -7810,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7834,7 +7846,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>536</v>
       </c>
       <c r="K4" s="2">
         <v>20</v>
@@ -7923,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7947,7 +7959,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>538</v>
       </c>
       <c r="K5" s="2">
         <v>20</v>
@@ -8036,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -8060,7 +8072,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>540</v>
       </c>
       <c r="K6" s="2">
         <v>20</v>
@@ -8169,13 +8181,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8190,13 +8202,13 @@
         <v>314</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>318</v>
@@ -8220,19 +8232,19 @@
         <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>329</v>
@@ -8241,19 +8253,19 @@
         <v>330</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>157</v>
